--- a/docs/StructuralMetadataAiredale.xlsx
+++ b/docs/StructuralMetadataAiredale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BirkinshawJ\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEEB627-CC64-49C6-AD05-F33D8F119207}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D949A9-0B49-440C-8E14-4F94FBA77B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BB99E3F9-AB7F-47C3-9E5A-B91093A2F4BB}"/>
   </bookViews>
